--- a/SelBot/data/TC001.xlsx
+++ b/SelBot/data/TC001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TestLeaf\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15320" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13080" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -184,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,19 +436,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A4" sqref="A4:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -460,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
